--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
@@ -2463,12 +2463,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8801070002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>NARANJO CITRUS SINENSIS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2504,7 +2504,7 @@
         <v>253.44</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -2516,50 +2516,50 @@
         <v>2.9</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>293.33</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T22" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8801070002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>NARANJO CITRUS SINENSIS</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2595,7 +2595,7 @@
         <v>253.44</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -2607,38 +2607,38 @@
         <v>2.9</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>0</v>
+        <v>293.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T23" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5375,17 +5375,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>70LD18</t>
+          <t>90LD18</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -5466,12 +5466,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020030</t>
+          <t>8401020009</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN</t>
+          <t>CEREZO PICOTA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -5557,12 +5557,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020009</t>
+          <t>8401020030</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CEREZO PICOTA</t>
+          <t>MANZANO GOLDEN</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -5648,12 +5648,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO SPRING CREST</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -5739,17 +5739,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>MELOCOTONERO SPRING CREST</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>90LD18</t>
+          <t>70LD18</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -12291,12 +12291,12 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>8401020036</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO TARDIO</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -12332,7 +12332,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K130" s="4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L130" s="4" t="n">
         <v>0</v>
@@ -12344,10 +12344,10 @@
         <v>2</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P130" s="4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q130" s="4" t="n">
         <v>0</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="U130" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V130" s="4" t="inlineStr">
@@ -12382,12 +12382,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020010</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>CEREZO BURLAT</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -12423,7 +12423,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K131" s="4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L131" s="4" t="n">
         <v>0</v>
@@ -12435,50 +12435,50 @@
         <v>2</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q131" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R131" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S131" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T131" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T131" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V131" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W131" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>8401020010</t>
+          <t>8401020036</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>CEREZO BURLAT</t>
+          <t>MELOCOTONERO TARDIO</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -12514,7 +12514,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K132" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L132" s="4" t="n">
         <v>0</v>
@@ -12526,38 +12526,38 @@
         <v>2</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q132" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R132" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S132" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T132" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T132" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U132" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V132" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W132" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14111,17 +14111,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>8104230004</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>35LA200</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14131,43 +14131,43 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>206.46</v>
+        <v>121.95</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>136.39</v>
+        <v>59.56</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="5" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="N150" s="5" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q150" s="4" t="n">
         <v>0</v>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
@@ -14202,17 +14202,17 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8104230004</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>35LA200</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -14222,43 +14222,43 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H151" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>121.95</v>
+        <v>206.46</v>
       </c>
       <c r="J151" s="4" t="n">
-        <v>59.56</v>
+        <v>136.39</v>
       </c>
       <c r="K151" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L151" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M151" s="5" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="N151" s="5" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P151" s="4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q151" s="4" t="n">
         <v>0</v>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V151" s="4" t="inlineStr">
@@ -16022,12 +16022,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -16057,10 +16057,10 @@
         <v>3</v>
       </c>
       <c r="I171" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J171" s="4" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K171" s="4" t="n">
         <v>150</v>
@@ -16113,12 +16113,12 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>8401020022</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>GRANADO MOLLAR</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -16148,13 +16148,13 @@
         <v>3</v>
       </c>
       <c r="I172" s="4" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J172" s="4" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K172" s="4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L172" s="4" t="n">
         <v>0</v>
@@ -16166,10 +16166,10 @@
         <v>1.5</v>
       </c>
       <c r="O172" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P172" s="4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q172" s="4" t="n">
         <v>0</v>
@@ -16182,12 +16182,12 @@
       </c>
       <c r="T172" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U172" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V172" s="4" t="inlineStr">
@@ -16197,19 +16197,19 @@
       </c>
       <c r="W172" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020022</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>GRANADO MOLLAR</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -16245,7 +16245,7 @@
         <v>51.4</v>
       </c>
       <c r="K173" s="4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L173" s="4" t="n">
         <v>0</v>
@@ -16257,10 +16257,10 @@
         <v>1.5</v>
       </c>
       <c r="O173" s="4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P173" s="4" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q173" s="4" t="n">
         <v>0</v>
@@ -16273,12 +16273,12 @@
       </c>
       <c r="T173" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U173" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V173" s="4" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="W173" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -16568,17 +16568,17 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>8804340001</t>
+          <t>8104230006</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>TEUCRIUM FRUTICANS</t>
+          <t>COPROSMA CHOCOLATE SOLDIER</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -16588,12 +16588,12 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G177" s="4" t="n">
@@ -16609,10 +16609,10 @@
         <v>55.35</v>
       </c>
       <c r="K177" s="4" t="n">
-        <v>35.29</v>
+        <v>75</v>
       </c>
       <c r="L177" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M177" s="5" t="n">
         <v>1</v>
@@ -16621,10 +16621,10 @@
         <v>2.9</v>
       </c>
       <c r="O177" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P177" s="4" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q177" s="4" t="n">
         <v>92</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="U177" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V177" s="4" t="inlineStr">
@@ -16652,24 +16652,24 @@
       </c>
       <c r="W177" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>8104230006</t>
+          <t>8804340001</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>COPROSMA CHOCOLATE SOLDIER</t>
+          <t>TEUCRIUM FRUTICANS</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -16679,12 +16679,12 @@
       </c>
       <c r="E178" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G178" s="4" t="n">
@@ -16700,10 +16700,10 @@
         <v>55.35</v>
       </c>
       <c r="K178" s="4" t="n">
-        <v>75</v>
+        <v>35.29</v>
       </c>
       <c r="L178" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M178" s="5" t="n">
         <v>1</v>
@@ -16712,10 +16712,10 @@
         <v>2.9</v>
       </c>
       <c r="O178" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P178" s="4" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="Q178" s="4" t="n">
         <v>92</v>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="U178" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V178" s="4" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="W178" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20098,17 +20098,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8701140002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>VITIS VINIFERA RED GLOBE</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>3I5LA60</t>
+          <t>5LA150</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -20118,12 +20118,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -20133,10 +20133,10 @@
         <v>4</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>77.95999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>36.67</v>
+        <v>49.25</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -20154,7 +20154,7 @@
         <v>-4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -20189,17 +20189,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8701140002</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA RED GLOBE</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>5LA150</t>
+          <t>3I5LA60</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -20209,12 +20209,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -20224,10 +20224,10 @@
         <v>4</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>91.8</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>49.25</v>
+        <v>36.67</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>0</v>
@@ -20245,7 +20245,7 @@
         <v>-4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -21463,17 +21463,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8404130008</t>
+          <t>8401020027</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>UVA CRIMSON SIN PEPITA</t>
+          <t>KAKI ROJO BRILLANTE</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>3LA150</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -21495,31 +21495,31 @@
         <v>30</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>74.84999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>37.09</v>
+        <v>36.22</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0</v>
@@ -21532,12 +21532,12 @@
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -21547,7 +21547,7 @@
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -21645,17 +21645,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8401020027</t>
+          <t>8404130008</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>KAKI ROJO BRILLANTE</t>
+          <t>UVA CRIMSON SIN PEPITA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>3LA150</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -21677,31 +21677,31 @@
         <v>30</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>73.90000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>36.22</v>
+        <v>37.09</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0</v>
@@ -21714,12 +21714,12 @@
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -21729,24 +21729,24 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8802070001</t>
+          <t>8201070001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PHOENIX CANARIENSIS</t>
+          <t>CUPRESSUS MACROCARPA WILMA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>10LA120</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -21756,25 +21756,25 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>91.84</v>
+        <v>77.87</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>52.71</v>
+        <v>40.01</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
@@ -21783,16 +21783,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -21810,7 +21810,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -21827,17 +21827,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8201070001</t>
+          <t>8802070001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSUS MACROCARPA WILMA</t>
+          <t>PHOENIX CANARIENSIS</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>10LA120</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -21847,25 +21847,25 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>77.87</v>
+        <v>91.84</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>40.01</v>
+        <v>52.71</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>0</v>
@@ -21874,16 +21874,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -22555,17 +22555,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8401020024</t>
+          <t>8401020012</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA CUELLODAMA BLANCA</t>
+          <t>CEREZO GUINDO</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -22596,7 +22596,7 @@
         <v>34.01</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
@@ -22608,10 +22608,10 @@
         <v>1</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
@@ -22624,12 +22624,12 @@
       </c>
       <c r="T49" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -22639,24 +22639,24 @@
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8401020012</t>
+          <t>8401020024</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>CEREZO GUINDO</t>
+          <t>HIGUERA CUELLODAMA BLANCA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -22687,7 +22687,7 @@
         <v>34.01</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0</v>
@@ -22699,10 +22699,10 @@
         <v>1</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>0</v>
@@ -22715,12 +22715,12 @@
       </c>
       <c r="T50" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -22730,7 +22730,7 @@
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -22919,12 +22919,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020041</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>NOGAL COMUN</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -22960,7 +22960,7 @@
         <v>34.27</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -22972,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0</v>
@@ -22988,12 +22988,12 @@
       </c>
       <c r="T53" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -23003,19 +23003,19 @@
       </c>
       <c r="W53" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -23051,7 +23051,7 @@
         <v>34.27</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
@@ -23079,12 +23079,12 @@
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -23094,24 +23094,24 @@
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020037</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>MEMBRILLO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -23192,12 +23192,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020041</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>NOGAL COMUN</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -23233,7 +23233,7 @@
         <v>34.27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -23276,24 +23276,24 @@
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8401020037</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MEMBRILLO</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -23324,7 +23324,7 @@
         <v>34.27</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         <v>1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0</v>
@@ -23352,12 +23352,12 @@
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -23367,7 +23367,7 @@
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -24830,17 +24830,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8104230005</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>COPROSMA EVENING GLOW</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>C40A30</t>
+          <t>C19A30</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -24850,88 +24850,88 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>68.98999999999999</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>35.42</v>
+        <v>40.82</v>
       </c>
       <c r="K74" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N74" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" s="4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T74" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T74" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8104230005</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>COPROSMA EVENING GLOW</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>C19A30</t>
+          <t>C40A30</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -24941,71 +24941,71 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>74.93000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>40.82</v>
+        <v>35.42</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="R75" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="S75" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+      <c r="T75" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -25558,12 +25558,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8701140003</t>
+          <t>8701140001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA AUTUM ROYA</t>
+          <t>VITIS VINIFERA MOSCATELL</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -25614,7 +25614,7 @@
         <v>-3</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -25649,12 +25649,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8701140001</t>
+          <t>8701140003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA MOSCATELL</t>
+          <t>VITIS VINIFERA AUTUM ROYA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -25705,7 +25705,7 @@
         <v>-3</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -26468,17 +26468,17 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -26488,49 +26488,49 @@
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>53.85</v>
+        <v>53.95</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>26.18</v>
+        <v>26.28</v>
       </c>
       <c r="K92" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M92" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N92" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N92" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O92" s="4" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P92" s="4" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R92" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S92" s="5" t="n">
         <v>0</v>
@@ -26542,34 +26542,34 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W92" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8104090016</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>EUONYMUS FORTUNEI EMERALD</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -26579,83 +26579,83 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>53.95</v>
+        <v>59.85</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>26.28</v>
+        <v>31.64</v>
       </c>
       <c r="K93" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L93" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N93" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P93" s="4" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T93" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T93" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>8104090016</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS FORTUNEI EMERALD</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -26685,16 +26685,16 @@
         <v>3</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>59.85</v>
+        <v>53.85</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>31.64</v>
+        <v>26.18</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0.5</v>
@@ -26703,38 +26703,38 @@
         <v>1.5</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T94" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T94" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -28470,17 +28470,17 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>8303020009</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>ROSA TREPADOR</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>5LA160</t>
+          <t>20LA100</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -28490,43 +28490,43 @@
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G114" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>59.85</v>
+        <v>49.95</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>34.73</v>
+        <v>25.73</v>
       </c>
       <c r="K114" s="4" t="n">
-        <v>60</v>
+        <v>33.33</v>
       </c>
       <c r="L114" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M114" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N114" s="5" t="n">
         <v>0.5</v>
-      </c>
-      <c r="N114" s="5" t="n">
-        <v>1.5</v>
       </c>
       <c r="O114" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P114" s="4" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q114" s="4" t="n">
         <v>92</v>
@@ -28561,17 +28561,17 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8303020009</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>ROSA TREPADOR</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>20LA100</t>
+          <t>5LA160</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -28581,43 +28581,43 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G115" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>49.95</v>
+        <v>59.85</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>25.73</v>
+        <v>34.73</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>33.33</v>
+        <v>60</v>
       </c>
       <c r="L115" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M115" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N115" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O115" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="Q115" s="4" t="n">
         <v>92</v>
@@ -30836,12 +30836,12 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>8104090007</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS COMPACT</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -30892,7 +30892,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="Q140" s="4" t="n">
         <v>0</v>
@@ -30927,12 +30927,12 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8104090007</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>EUONYMUS JAPONICUS COMPACT</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -30983,7 +30983,7 @@
         <v>-1</v>
       </c>
       <c r="P141" s="4" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="Q141" s="4" t="n">
         <v>0</v>
@@ -31382,12 +31382,12 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>8401020073</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO ENANO</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -31438,7 +31438,7 @@
         <v>-1</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q146" s="4" t="n">
         <v>0</v>
@@ -31473,12 +31473,12 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8401020073</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>ALMENDRO ENANO</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -31529,7 +31529,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -32546,17 +32546,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8401020064</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CEREZO LAPINS</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -32602,7 +32602,7 @@
         <v>-1</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>0</v>
@@ -32637,17 +32637,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8401020064</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>CEREZO LAPINS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10LA160</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -32693,7 +32693,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0</v>
@@ -32728,17 +32728,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020029</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GALA</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA160</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -32784,7 +32784,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -32819,17 +32819,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8401020029</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>MANZANO GALA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -33001,12 +33001,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8401020006</t>
+          <t>8401020028</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO GUARA</t>
+          <t>MANZANO FUJI</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -33045,7 +33045,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0.2</v>
@@ -33057,7 +33057,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>38</v>
@@ -33092,12 +33092,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8804240008</t>
+          <t>8401020016</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>OLIVO MANZANILLA</t>
+          <t>CIRUELO JAPONES NEGRO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -33112,12 +33112,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -33127,10 +33127,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>36.95</v>
+        <v>34.95</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>18.82</v>
+        <v>17</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>0</v>
@@ -33148,7 +33148,7 @@
         <v>-1</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0</v>
@@ -33183,12 +33183,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8401020016</t>
+          <t>8804240008</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO JAPONES NEGRO</t>
+          <t>OLIVO MANZANILLA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -33203,12 +33203,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -33218,10 +33218,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>34.95</v>
+        <v>36.95</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>17</v>
+        <v>18.82</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>0</v>
@@ -33239,7 +33239,7 @@
         <v>-1</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>0</v>
@@ -33274,12 +33274,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8401020028</t>
+          <t>8401020006</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MANZANO FUJI</t>
+          <t>ALMENDRO GUARA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -33318,7 +33318,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0.2</v>
@@ -33330,7 +33330,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>38</v>
@@ -33456,17 +33456,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8401020058</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>MANZANO DELICIOUS ROJO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA140</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -33497,10 +33497,10 @@
         <v>17.13</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0.2</v>
@@ -33509,10 +33509,10 @@
         <v>0.5</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>38</v>
@@ -33547,17 +33547,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8401020058</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MANZANO DELICIOUS ROJO</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10LA140</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -33588,10 +33588,10 @@
         <v>17.13</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0.2</v>
@@ -33600,10 +33600,10 @@
         <v>0.5</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>38</v>
@@ -33638,17 +33638,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8501040004</t>
+          <t>8104230003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SASANQUA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>10LA70</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -33658,25 +33658,25 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>33.9</v>
+        <v>36.95</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>16.2</v>
+        <v>18.97</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>0</v>
@@ -33685,16 +33685,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -33712,7 +33712,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -33729,17 +33729,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8104230003</t>
+          <t>8501040004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>CAMELIA SASANQUA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>10LA70</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -33749,43 +33749,43 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O24" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -33803,7 +33803,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -36186,17 +36186,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8104230051</t>
+          <t>8501040005</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>HEUCHERA HYBRIDA</t>
+          <t>CAMELIA YULETIDE</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>4LA30</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -36206,12 +36206,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -36221,10 +36221,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>29.9</v>
+        <v>25.9</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>16.1</v>
+        <v>12.47</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>0</v>
@@ -36242,7 +36242,7 @@
         <v>-2</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0</v>
@@ -36277,17 +36277,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8501040005</t>
+          <t>8104230051</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA YULETIDE</t>
+          <t>HEUCHERA HYBRIDA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>4LA30</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -36297,12 +36297,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -36312,10 +36312,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>25.9</v>
+        <v>29.9</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>12.47</v>
+        <v>16.1</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>0</v>
@@ -36333,7 +36333,7 @@
         <v>-2</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
@@ -36914,17 +36914,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8804160001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>STRELIZIA AUGUSTA 2 PLANTAS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>7LA150</t>
+          <t>C20A2120</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -36934,12 +36934,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -36949,13 +36949,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>26.95</v>
+        <v>25.49</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>14.42</v>
+        <v>13.1</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0</v>
@@ -36967,55 +36967,55 @@
         <v>0.5</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>0</v>
+        <v>173.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T59" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 09/04/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8804160001</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>STRELIZIA AUGUSTA 2 PLANTAS</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>C20A2120</t>
+          <t>7LA150</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -37025,12 +37025,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -37040,13 +37040,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>25.49</v>
+        <v>26.95</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>13.1</v>
+        <v>14.42</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0</v>
@@ -37058,38 +37058,38 @@
         <v>0.5</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>173.33</v>
+        <v>0</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T60" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T60" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37187,17 +37187,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8106010002</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>BUXUS MICROPHYLLA FAULKNER</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>5LA70</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -37207,12 +37207,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -37228,7 +37228,7 @@
         <v>12.82</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -37240,16 +37240,16 @@
         <v>0.5</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>0</v>
@@ -37261,34 +37261,34 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1196 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8106010002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>BUXUS MICROPHYLLA FAULKNER</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>5LA70</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -37298,12 +37298,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -37319,7 +37319,7 @@
         <v>12.82</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -37331,16 +37331,16 @@
         <v>0.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>0</v>
@@ -37352,17 +37352,17 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1196 días.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -38635,17 +38635,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8404100002</t>
+          <t>8804070001</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>RUBUS FRUTICOSUS DIRKSEN (MORA)</t>
+          <t>CALLISTEMON LAEVIS</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -38655,25 +38655,25 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>23</v>
+        <v>11.95</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>12.81</v>
+        <v>2.76</v>
       </c>
       <c r="K78" s="4" t="n">
         <v>0</v>
@@ -38682,16 +38682,16 @@
         <v>0</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N78" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>0</v>
@@ -38709,7 +38709,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -38726,17 +38726,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8804070001</t>
+          <t>8404100002</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>CALLISTEMON LAEVIS</t>
+          <t>RUBUS FRUTICOSUS DIRKSEN (MORA)</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -38746,43 +38746,43 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H79" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J79" s="4" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="K79" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N79" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I79" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J79" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K79" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N79" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O79" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0</v>
@@ -38800,7 +38800,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -39090,12 +39090,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8801020003</t>
+          <t>8801010003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
+          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -39146,7 +39146,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -39181,12 +39181,12 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8801010003</t>
+          <t>8801020003</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
+          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -39237,7 +39237,7 @@
         <v>-1</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q84" s="4" t="n">
         <v>0</v>
@@ -41547,17 +41547,17 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>8201070001</t>
+          <t>8104140004</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSUS MACROCARPA WILMA</t>
+          <t>ILEX AQUIFOLIUM ARGENTEA MARGINATA</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M14A55</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -41567,43 +41567,43 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H110" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="J110" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K110" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N110" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I110" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="J110" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="K110" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N110" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O110" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>0</v>
@@ -41621,7 +41621,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -41638,17 +41638,17 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>8104140004</t>
+          <t>8201070001</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM ARGENTEA MARGINATA</t>
+          <t>CUPRESSUS MACROCARPA WILMA</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>M14A55</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -41658,25 +41658,25 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="K111" s="4" t="n">
         <v>0</v>
@@ -41685,16 +41685,16 @@
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>0</v>
@@ -41712,7 +41712,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -43913,12 +43913,12 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>8501180002</t>
+          <t>8201070001</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>8501180002409</t>
+          <t>CUPRESSUS MACROCARPA WILMA</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -43933,12 +43933,12 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
@@ -43969,7 +43969,7 @@
         <v>-1</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>0</v>
@@ -44004,12 +44004,12 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>8201070001</t>
+          <t>8501180002</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSUS MACROCARPA WILMA</t>
+          <t>8501180002409</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -44024,12 +44024,12 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
@@ -44060,7 +44060,7 @@
         <v>-1</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>0</v>
@@ -44531,17 +44531,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44590,13 +44590,13 @@
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -44605,12 +44605,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44622,17 +44622,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>8401020033</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON  VID PRECOZ</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44642,12 +44642,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44681,13 +44681,13 @@
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -44696,12 +44696,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44713,17 +44713,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44733,12 +44733,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44772,13 +44772,13 @@
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>53.33</v>
+        <v>130</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -44787,12 +44787,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44804,17 +44804,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44824,12 +44824,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44863,13 +44863,13 @@
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>130</v>
+        <v>56.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -44878,12 +44878,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44895,17 +44895,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44939,7 +44939,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44948,7 +44948,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -44969,7 +44969,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -44986,17 +44986,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45006,12 +45006,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -45030,7 +45030,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45039,16 +45039,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>0</v>
@@ -45065,7 +45065,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45077,17 +45077,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45097,12 +45097,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45121,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45130,7 +45130,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -45151,7 +45151,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -45168,17 +45168,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -45188,12 +45188,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45227,13 +45227,13 @@
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>210</v>
+        <v>126.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -45242,12 +45242,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45259,17 +45259,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45303,7 +45303,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -45312,7 +45312,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
@@ -45333,7 +45333,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -45350,17 +45350,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45370,12 +45370,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45409,13 +45409,13 @@
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>53.33</v>
+        <v>130</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -45424,12 +45424,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45441,17 +45441,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8104010007</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ABELIA X GRANDIFLORA</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>5LA60</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45485,7 +45485,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45494,19 +45494,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -45515,12 +45515,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45532,17 +45532,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45552,12 +45552,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45576,7 +45576,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45585,7 +45585,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -45606,7 +45606,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -45623,17 +45623,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45643,12 +45643,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45667,7 +45667,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45676,19 +45676,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -45697,12 +45697,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45714,17 +45714,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45773,13 +45773,13 @@
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -45788,12 +45788,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45896,17 +45896,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45916,12 +45916,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45940,7 +45940,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45949,19 +45949,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T17" s="7" t="inlineStr">
         <is>
@@ -45970,12 +45970,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45987,17 +45987,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46007,12 +46007,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46040,19 +46040,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -46061,12 +46061,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46078,17 +46078,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46098,12 +46098,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -46122,7 +46122,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46131,16 +46131,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -46152,12 +46152,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46169,17 +46169,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46228,13 +46228,13 @@
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -46243,12 +46243,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46260,17 +46260,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46280,12 +46280,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46304,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46313,19 +46313,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -46334,12 +46334,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46351,17 +46351,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46371,12 +46371,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46404,16 +46404,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>53.33</v>
+        <v>56.67</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>0</v>
@@ -46430,7 +46430,7 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46442,17 +46442,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46462,12 +46462,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46486,7 +46486,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46495,19 +46495,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>53.33</v>
+        <v>210</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -46516,12 +46516,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46533,17 +46533,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46553,12 +46553,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46577,7 +46577,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46586,19 +46586,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -46607,12 +46607,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46624,17 +46624,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46644,12 +46644,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46668,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46677,19 +46677,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -46698,12 +46698,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -46715,17 +46715,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -46759,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -46768,7 +46768,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -46806,17 +46806,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8106070018</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>25LA160</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -46826,12 +46826,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -46850,7 +46850,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -46859,19 +46859,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -46880,12 +46880,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -46897,17 +46897,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -46917,12 +46917,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -46950,16 +46950,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>306.67</v>
+        <v>200</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -46971,12 +46971,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -46988,17 +46988,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47008,12 +47008,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47041,19 +47041,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>53.33</v>
+        <v>210</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -47062,12 +47062,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47079,17 +47079,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47099,12 +47099,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47138,13 +47138,13 @@
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -47153,12 +47153,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47170,17 +47170,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -47223,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
@@ -47261,17 +47261,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -47305,7 +47305,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -47314,16 +47314,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>306.67</v>
+        <v>153.33</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -47335,12 +47335,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -47362,7 +47362,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -47396,7 +47396,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -47405,7 +47405,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
@@ -47426,7 +47426,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -47443,17 +47443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>C35A150</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -47502,13 +47502,13 @@
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -47517,12 +47517,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -47534,17 +47534,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8804250006</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>JASMINUM SAMBAC</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>C21A150</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -47554,12 +47554,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -47578,7 +47578,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -47587,19 +47587,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T35" s="7" t="inlineStr">
         <is>
@@ -47608,12 +47608,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -47625,17 +47625,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -47645,12 +47645,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -47669,7 +47669,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -47678,16 +47678,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>306.67</v>
+        <v>293.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -47699,12 +47699,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -47769,19 +47769,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -47790,12 +47790,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -47807,17 +47807,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -47851,7 +47851,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -47860,19 +47860,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>130</v>
+        <v>13.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -47881,12 +47881,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -47898,17 +47898,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -47951,7 +47951,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
@@ -47972,7 +47972,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -47989,17 +47989,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48009,12 +48009,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48042,7 +48042,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -48063,7 +48063,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -48080,17 +48080,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48100,12 +48100,12 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -48124,7 +48124,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48133,16 +48133,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>10</v>
+        <v>53.33</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>0</v>
@@ -48159,7 +48159,7 @@
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48171,17 +48171,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48191,12 +48191,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -48215,7 +48215,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -48224,7 +48224,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
@@ -48245,7 +48245,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -48262,17 +48262,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -48282,12 +48282,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -48306,7 +48306,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -48315,19 +48315,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T43" s="7" t="inlineStr">
         <is>
@@ -48336,12 +48336,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -48353,17 +48353,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -48397,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -48406,19 +48406,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -48427,12 +48427,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -48444,17 +48444,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -48503,10 +48503,10 @@
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>30</v>
@@ -48518,12 +48518,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -48535,17 +48535,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -48555,12 +48555,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -48609,7 +48609,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -48626,17 +48626,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -48685,10 +48685,10 @@
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>30</v>
@@ -48700,12 +48700,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -48717,17 +48717,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -48770,16 +48770,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>13.33</v>
+        <v>10</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>0</v>
@@ -48796,7 +48796,7 @@
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -48808,17 +48808,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -48828,12 +48828,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -48852,7 +48852,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -48861,19 +48861,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -48882,12 +48882,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -48899,17 +48899,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -48919,12 +48919,12 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -48952,19 +48952,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>83.33</v>
+        <v>210</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -48973,12 +48973,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -48990,17 +48990,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49010,12 +49010,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -49034,7 +49034,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49043,19 +49043,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -49064,12 +49064,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49081,17 +49081,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49101,12 +49101,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49134,7 +49134,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -49172,17 +49172,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49192,12 +49192,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49231,13 +49231,13 @@
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -49246,12 +49246,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -49263,17 +49263,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -49316,19 +49316,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>126.67</v>
+        <v>223.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T54" s="7" t="inlineStr">
         <is>
@@ -49337,12 +49337,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -49354,17 +49354,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8401020033</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>MELOCOTON  VID PRECOZ</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -49374,12 +49374,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -49398,7 +49398,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -49407,19 +49407,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -49428,12 +49428,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -49445,17 +49445,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -49465,12 +49465,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -49489,7 +49489,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -49498,7 +49498,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
@@ -49519,7 +49519,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -49536,17 +49536,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -49556,12 +49556,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -49610,7 +49610,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -49627,17 +49627,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -49647,12 +49647,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -49680,16 +49680,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>200</v>
+        <v>306.67</v>
       </c>
       <c r="S58" s="5" t="n">
         <v>30</v>
@@ -49701,12 +49701,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -49718,17 +49718,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -49792,7 +49792,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -49809,17 +49809,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -49829,12 +49829,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -49868,13 +49868,13 @@
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -49883,12 +49883,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -49900,17 +49900,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -49920,12 +49920,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -49944,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -49953,7 +49953,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
@@ -49974,7 +49974,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -49991,17 +49991,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50011,12 +50011,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -50035,7 +50035,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50044,7 +50044,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
@@ -50065,7 +50065,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -50082,17 +50082,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8106070018</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>25LA160</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50141,13 +50141,13 @@
         <v>92</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T63" s="7" t="inlineStr">
         <is>
@@ -50156,12 +50156,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -50173,17 +50173,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50193,12 +50193,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50247,7 +50247,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -50264,17 +50264,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -50284,12 +50284,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -50308,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -50317,16 +50317,16 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>293.33</v>
+        <v>306.67</v>
       </c>
       <c r="S65" s="5" t="n">
         <v>30</v>
@@ -50338,12 +50338,12 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -50355,17 +50355,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -50375,12 +50375,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -50408,19 +50408,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>240</v>
+        <v>53.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -50429,12 +50429,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -50446,17 +50446,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>C35A150</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -50505,13 +50505,13 @@
         <v>92</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -50520,12 +50520,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -50537,17 +50537,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -50581,7 +50581,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -50590,19 +50590,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -50611,12 +50611,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -50628,17 +50628,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -50687,13 +50687,13 @@
         <v>92</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -50702,12 +50702,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -50719,17 +50719,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -50739,12 +50739,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -50763,7 +50763,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -50772,7 +50772,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>92</v>
@@ -50793,7 +50793,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -50810,17 +50810,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -50830,12 +50830,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -50854,7 +50854,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -50863,19 +50863,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -50884,12 +50884,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -50901,17 +50901,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>8804250006</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM SAMBAC</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>C21A150</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -50921,12 +50921,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -50945,7 +50945,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -50954,7 +50954,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>92</v>
@@ -50975,7 +50975,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -51002,7 +51002,7 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -51066,7 +51066,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -51083,17 +51083,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -51136,7 +51136,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>92</v>
@@ -51157,7 +51157,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -51174,17 +51174,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8104010007</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>ABELIA X GRANDIFLORA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>5LA60</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -51194,12 +51194,12 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -51218,7 +51218,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -51227,19 +51227,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -51248,12 +51248,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -51265,17 +51265,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -51285,12 +51285,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -51309,7 +51309,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -51318,19 +51318,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -51339,12 +51339,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -51356,17 +51356,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -51376,12 +51376,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -51415,10 +51415,10 @@
         <v>92</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S77" s="5" t="n">
         <v>30</v>
@@ -51430,12 +51430,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -51447,17 +51447,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -51467,12 +51467,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -51506,13 +51506,13 @@
         <v>92</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -51521,12 +51521,12 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -51538,17 +51538,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -51582,7 +51582,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -51591,7 +51591,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>92</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -51629,17 +51629,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -51673,7 +51673,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -51682,19 +51682,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -51703,12 +51703,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -51720,17 +51720,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -51740,12 +51740,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -51764,7 +51764,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M81" s="5" t="n">
         <v>0</v>
@@ -51773,19 +51773,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T81" s="7" t="inlineStr">
         <is>
@@ -51794,12 +51794,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -51811,17 +51811,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -51831,12 +51831,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -51864,16 +51864,16 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S82" s="5" t="n">
         <v>30</v>
@@ -51885,12 +51885,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -51902,17 +51902,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -51922,12 +51922,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -51961,13 +51961,13 @@
         <v>92</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T83" s="7" t="inlineStr">
         <is>
@@ -51976,12 +51976,12 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
@@ -51993,17 +51993,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -52013,12 +52013,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -52046,16 +52046,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>153.33</v>
+        <v>306.67</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>30</v>
@@ -52067,12 +52067,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -52084,17 +52084,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -52128,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -52137,19 +52137,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>223.33</v>
+        <v>126.67</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -52158,12 +52158,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -52175,17 +52175,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -52195,12 +52195,12 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -52234,13 +52234,13 @@
         <v>92</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -52249,12 +52249,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -52266,17 +52266,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -52286,12 +52286,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -52310,7 +52310,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -52319,19 +52319,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -52340,12 +52340,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -52357,17 +52357,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -52377,12 +52377,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -52401,7 +52401,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -52410,7 +52410,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>92</v>
@@ -52431,7 +52431,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -52448,17 +52448,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -52468,12 +52468,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -52507,13 +52507,13 @@
         <v>92</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>210</v>
+        <v>126.67</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -52522,12 +52522,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
